--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5271933564221847</v>
+        <v>0.5209010662194005</v>
       </c>
       <c r="C2">
-        <v>0.5352465228970292</v>
+        <v>0.5284173549292553</v>
       </c>
       <c r="D2">
-        <v>0.3759605170291931</v>
+        <v>0.3633847247877238</v>
       </c>
       <c r="E2">
-        <v>0.6131561930121828</v>
+        <v>0.6028140051356835</v>
       </c>
       <c r="F2">
-        <v>0.3249127158092514</v>
+        <v>0.3140407230176452</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3608719923970472</v>
+        <v>0.3491358409449706</v>
       </c>
       <c r="C3">
-        <v>0.4023271467822516</v>
+        <v>0.3876299128740889</v>
       </c>
       <c r="D3">
-        <v>0.2193602662400455</v>
+        <v>0.2064515430844597</v>
       </c>
       <c r="E3">
-        <v>0.4683591210172441</v>
+        <v>0.4543693905672561</v>
       </c>
       <c r="F3">
-        <v>0.3107399405001718</v>
+        <v>0.3017614833873206</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2850696761851754</v>
+        <v>0.2766139601088831</v>
       </c>
       <c r="C4">
-        <v>0.3326695620708743</v>
+        <v>0.3205523163110667</v>
       </c>
       <c r="D4">
-        <v>0.163222116570229</v>
+        <v>0.1530262537301577</v>
       </c>
       <c r="E4">
-        <v>0.4040075699417389</v>
+        <v>0.3911857023590685</v>
       </c>
       <c r="F4">
-        <v>0.299011820301305</v>
+        <v>0.287900825001641</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4371016549000599</v>
+        <v>0.4245700094424397</v>
       </c>
       <c r="C5">
-        <v>0.4532315568296234</v>
+        <v>0.4393557528778729</v>
       </c>
       <c r="D5">
-        <v>0.2559425989735116</v>
+        <v>0.2414648368369625</v>
       </c>
       <c r="E5">
-        <v>0.5059076980769434</v>
+        <v>0.4913907170846459</v>
       </c>
       <c r="F5">
-        <v>0.2671576622199981</v>
+        <v>0.2583974611168742</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3896032370913001</v>
+        <v>0.3793378286036473</v>
       </c>
       <c r="C6">
-        <v>0.413789606863516</v>
+        <v>0.4013254374874798</v>
       </c>
       <c r="D6">
-        <v>0.2130097486866146</v>
+        <v>0.2006046709917273</v>
       </c>
       <c r="E6">
-        <v>0.4615297917649678</v>
+        <v>0.4478891280124215</v>
       </c>
       <c r="F6">
-        <v>0.260808713075726</v>
+        <v>0.2497563433833</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3372088769403789</v>
+        <v>0.3288324600564539</v>
       </c>
       <c r="C7">
-        <v>0.3720254816772639</v>
+        <v>0.3601674043196504</v>
       </c>
       <c r="D7">
-        <v>0.1694528653703798</v>
+        <v>0.1589310008397884</v>
       </c>
       <c r="E7">
-        <v>0.411646529646953</v>
+        <v>0.3986615116107754</v>
       </c>
       <c r="F7">
-        <v>0.2504214817430038</v>
+        <v>0.2375808962882351</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3687369035000201</v>
+        <v>0.3582448599611742</v>
       </c>
       <c r="C8">
-        <v>0.3981935000896599</v>
+        <v>0.3844285013741874</v>
       </c>
       <c r="D8">
-        <v>0.1958236316628127</v>
+        <v>0.1824260236518181</v>
       </c>
       <c r="E8">
-        <v>0.442519639861117</v>
+        <v>0.427113595723454</v>
       </c>
       <c r="F8">
-        <v>0.2615486355428365</v>
+        <v>0.2466728085108265</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3640838352389494</v>
+        <v>0.3532650510030724</v>
       </c>
       <c r="C9">
-        <v>0.3961649916021489</v>
+        <v>0.381336062820872</v>
       </c>
       <c r="D9">
-        <v>0.1981724705295433</v>
+        <v>0.1830290214229363</v>
       </c>
       <c r="E9">
-        <v>0.4451656663867322</v>
+        <v>0.4278189119509986</v>
       </c>
       <c r="F9">
-        <v>0.2766791222489469</v>
+        <v>0.257976355866154</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3225460687585906</v>
+        <v>0.3173063146244254</v>
       </c>
       <c r="C10">
-        <v>0.3512110677830815</v>
+        <v>0.3418763137882747</v>
       </c>
       <c r="D10">
-        <v>0.1570731023746529</v>
+        <v>0.1463084296434522</v>
       </c>
       <c r="E10">
-        <v>0.3963244912627188</v>
+        <v>0.3825028491965154</v>
       </c>
       <c r="F10">
-        <v>0.2522787408475748</v>
+        <v>0.2307148046110977</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3733140171627247</v>
+        <v>0.3606037648954714</v>
       </c>
       <c r="C11">
-        <v>0.3962273317403655</v>
+        <v>0.379698193710172</v>
       </c>
       <c r="D11">
-        <v>0.1983446364123016</v>
+        <v>0.1799938953220499</v>
       </c>
       <c r="E11">
-        <v>0.4453589972284175</v>
+        <v>0.4242568742189688</v>
       </c>
       <c r="F11">
-        <v>0.2715264282766285</v>
+        <v>0.2448480836729456</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5209010662194005</v>
+        <v>0.5440079918808879</v>
       </c>
       <c r="C2">
-        <v>0.5284173549292553</v>
+        <v>0.5440079918808879</v>
       </c>
       <c r="D2">
-        <v>0.3633847247877238</v>
+        <v>0.3686258812966464</v>
       </c>
       <c r="E2">
-        <v>0.6028140051356835</v>
+        <v>0.6071456837503223</v>
       </c>
       <c r="F2">
-        <v>0.3140407230176452</v>
+        <v>0.2797714183633027</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3491358409449706</v>
+        <v>0.371620442828777</v>
       </c>
       <c r="C3">
-        <v>0.3876299128740889</v>
+        <v>0.3874993246909071</v>
       </c>
       <c r="D3">
-        <v>0.2064515430844597</v>
+        <v>0.1981274257140365</v>
       </c>
       <c r="E3">
-        <v>0.4543693905672561</v>
+        <v>0.4451150701942549</v>
       </c>
       <c r="F3">
-        <v>0.3017614833873206</v>
+        <v>0.2550055127533425</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2766139601088831</v>
+        <v>0.3184154172361096</v>
       </c>
       <c r="C4">
-        <v>0.3205523163110667</v>
+        <v>0.3634107558758037</v>
       </c>
       <c r="D4">
-        <v>0.1530262537301577</v>
+        <v>0.1745848588293675</v>
       </c>
       <c r="E4">
-        <v>0.3911857023590685</v>
+        <v>0.4178335300444035</v>
       </c>
       <c r="F4">
-        <v>0.287900825001641</v>
+        <v>0.2825786729951437</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4245700094424397</v>
+        <v>0.3975283727593981</v>
       </c>
       <c r="C5">
-        <v>0.4393557528778729</v>
+        <v>0.4145492339343189</v>
       </c>
       <c r="D5">
-        <v>0.2414648368369625</v>
+        <v>0.2091250642104284</v>
       </c>
       <c r="E5">
-        <v>0.4913907170846459</v>
+        <v>0.4573019398717093</v>
       </c>
       <c r="F5">
-        <v>0.2583974611168742</v>
+        <v>0.2370777989771771</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3793378286036473</v>
+        <v>0.3560805627268342</v>
       </c>
       <c r="C6">
-        <v>0.4013254374874798</v>
+        <v>0.3805953001122874</v>
       </c>
       <c r="D6">
-        <v>0.2006046709917273</v>
+        <v>0.1781696942431756</v>
       </c>
       <c r="E6">
-        <v>0.4478891280124215</v>
+        <v>0.4221015212519088</v>
       </c>
       <c r="F6">
-        <v>0.2497563433833</v>
+        <v>0.2389242722689363</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3288324600564539</v>
+        <v>0.3392710727664942</v>
       </c>
       <c r="C7">
-        <v>0.3601674043196504</v>
+        <v>0.3699241520168967</v>
       </c>
       <c r="D7">
-        <v>0.1589310008397884</v>
+        <v>0.1693631219851699</v>
       </c>
       <c r="E7">
-        <v>0.3986615116107754</v>
+        <v>0.4115375098155329</v>
       </c>
       <c r="F7">
-        <v>0.2375808962882351</v>
+        <v>0.2470638456253208</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3582448599611742</v>
+        <v>0.352534700000344</v>
       </c>
       <c r="C8">
-        <v>0.3844285013741874</v>
+        <v>0.3776340216059933</v>
       </c>
       <c r="D8">
-        <v>0.1824260236518181</v>
+        <v>0.1795390275838225</v>
       </c>
       <c r="E8">
-        <v>0.427113595723454</v>
+        <v>0.4237204592462139</v>
       </c>
       <c r="F8">
-        <v>0.2466728085108265</v>
+        <v>0.251301328242729</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3532650510030724</v>
+        <v>0.323074747095869</v>
       </c>
       <c r="C9">
-        <v>0.381336062820872</v>
+        <v>0.3439312876808158</v>
       </c>
       <c r="D9">
-        <v>0.1830290214229363</v>
+        <v>0.1492574881197667</v>
       </c>
       <c r="E9">
-        <v>0.4278189119509986</v>
+        <v>0.3863385666999435</v>
       </c>
       <c r="F9">
-        <v>0.257976355866154</v>
+        <v>0.2288235751843726</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3173063146244254</v>
+        <v>0.3581453753460085</v>
       </c>
       <c r="C10">
-        <v>0.3418763137882747</v>
+        <v>0.3775233390900978</v>
       </c>
       <c r="D10">
-        <v>0.1463084296434522</v>
+        <v>0.1783793918318441</v>
       </c>
       <c r="E10">
-        <v>0.3825028491965154</v>
+        <v>0.4223498453081807</v>
       </c>
       <c r="F10">
-        <v>0.2307148046110977</v>
+        <v>0.2452214067738235</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3606037648954714</v>
+        <v>0.3599616089605324</v>
       </c>
       <c r="C11">
-        <v>0.379698193710172</v>
+        <v>0.3766256120414225</v>
       </c>
       <c r="D11">
-        <v>0.1799938953220499</v>
+        <v>0.1882494404226522</v>
       </c>
       <c r="E11">
-        <v>0.4242568742189688</v>
+        <v>0.4338772181420132</v>
       </c>
       <c r="F11">
-        <v>0.2448480836729456</v>
+        <v>0.2708253138491602</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5440079918808879</v>
+        <v>0.5209010662194005</v>
       </c>
       <c r="C2">
-        <v>0.5440079918808879</v>
+        <v>0.5284173549292553</v>
       </c>
       <c r="D2">
-        <v>0.3686258812966464</v>
+        <v>0.3633847247877238</v>
       </c>
       <c r="E2">
-        <v>0.6071456837503223</v>
+        <v>0.6028140051356835</v>
       </c>
       <c r="F2">
-        <v>0.2797714183633027</v>
+        <v>0.3140407230176452</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.371620442828777</v>
+        <v>0.3491358409449706</v>
       </c>
       <c r="C3">
-        <v>0.3874993246909071</v>
+        <v>0.3876299128740889</v>
       </c>
       <c r="D3">
-        <v>0.1981274257140365</v>
+        <v>0.2064515430844597</v>
       </c>
       <c r="E3">
-        <v>0.4451150701942549</v>
+        <v>0.4543693905672561</v>
       </c>
       <c r="F3">
-        <v>0.2550055127533425</v>
+        <v>0.3017614833873206</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3184154172361096</v>
+        <v>0.2766139601088831</v>
       </c>
       <c r="C4">
-        <v>0.3634107558758037</v>
+        <v>0.3205523163110667</v>
       </c>
       <c r="D4">
-        <v>0.1745848588293675</v>
+        <v>0.1530262537301577</v>
       </c>
       <c r="E4">
-        <v>0.4178335300444035</v>
+        <v>0.3911857023590685</v>
       </c>
       <c r="F4">
-        <v>0.2825786729951437</v>
+        <v>0.287900825001641</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3975283727593981</v>
+        <v>0.4245700094424397</v>
       </c>
       <c r="C5">
-        <v>0.4145492339343189</v>
+        <v>0.4393557528778729</v>
       </c>
       <c r="D5">
-        <v>0.2091250642104284</v>
+        <v>0.2414648368369625</v>
       </c>
       <c r="E5">
-        <v>0.4573019398717093</v>
+        <v>0.4913907170846459</v>
       </c>
       <c r="F5">
-        <v>0.2370777989771771</v>
+        <v>0.2583974611168742</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3560805627268342</v>
+        <v>0.3793378286036473</v>
       </c>
       <c r="C6">
-        <v>0.3805953001122874</v>
+        <v>0.4013254374874798</v>
       </c>
       <c r="D6">
-        <v>0.1781696942431756</v>
+        <v>0.2006046709917273</v>
       </c>
       <c r="E6">
-        <v>0.4221015212519088</v>
+        <v>0.4478891280124215</v>
       </c>
       <c r="F6">
-        <v>0.2389242722689363</v>
+        <v>0.2497563433833</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3392710727664942</v>
+        <v>0.3288324600564539</v>
       </c>
       <c r="C7">
-        <v>0.3699241520168967</v>
+        <v>0.3601674043196504</v>
       </c>
       <c r="D7">
-        <v>0.1693631219851699</v>
+        <v>0.1589310008397884</v>
       </c>
       <c r="E7">
-        <v>0.4115375098155329</v>
+        <v>0.3986615116107754</v>
       </c>
       <c r="F7">
-        <v>0.2470638456253208</v>
+        <v>0.2375808962882351</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.352534700000344</v>
+        <v>0.3582448599611742</v>
       </c>
       <c r="C8">
-        <v>0.3776340216059933</v>
+        <v>0.3844285013741874</v>
       </c>
       <c r="D8">
-        <v>0.1795390275838225</v>
+        <v>0.1824260236518181</v>
       </c>
       <c r="E8">
-        <v>0.4237204592462139</v>
+        <v>0.427113595723454</v>
       </c>
       <c r="F8">
-        <v>0.251301328242729</v>
+        <v>0.2466728085108265</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.323074747095869</v>
+        <v>0.3532650510030724</v>
       </c>
       <c r="C9">
-        <v>0.3439312876808158</v>
+        <v>0.381336062820872</v>
       </c>
       <c r="D9">
-        <v>0.1492574881197667</v>
+        <v>0.1830290214229363</v>
       </c>
       <c r="E9">
-        <v>0.3863385666999435</v>
+        <v>0.4278189119509986</v>
       </c>
       <c r="F9">
-        <v>0.2288235751843726</v>
+        <v>0.257976355866154</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3581453753460085</v>
+        <v>0.3173063146244254</v>
       </c>
       <c r="C10">
-        <v>0.3775233390900978</v>
+        <v>0.3418763137882747</v>
       </c>
       <c r="D10">
-        <v>0.1783793918318441</v>
+        <v>0.1463084296434522</v>
       </c>
       <c r="E10">
-        <v>0.4223498453081807</v>
+        <v>0.3825028491965154</v>
       </c>
       <c r="F10">
-        <v>0.2452214067738235</v>
+        <v>0.2307148046110977</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3599616089605324</v>
+        <v>0.3606037648954714</v>
       </c>
       <c r="C11">
-        <v>0.3766256120414225</v>
+        <v>0.379698193710172</v>
       </c>
       <c r="D11">
-        <v>0.1882494404226522</v>
+        <v>0.1799938953220499</v>
       </c>
       <c r="E11">
-        <v>0.4338772181420132</v>
+        <v>0.4242568742189688</v>
       </c>
       <c r="F11">
-        <v>0.2708253138491602</v>
+        <v>0.2448480836729456</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
